--- a/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
+++ b/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001427</t>
+          <t>160142</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合A</t>
+          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.31</t>
+          <t>207.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.0335</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001446</t>
+          <t>161131</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合C</t>
+          <t>易方达3年封闭运作战略配售灵活配置混合（LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.31</t>
+          <t>277.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002819</t>
+          <t>161728</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合A</t>
+          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>283.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>25.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8033</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002820</t>
+          <t>002819</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合C</t>
+          <t>招商丰美灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>28.97</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.94</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160142</t>
+          <t>001427</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>招商丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161131</t>
+          <t>001446</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达3年封闭运作战略配售灵活配置混合（LOF)</t>
+          <t>招商丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>23.41</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161728</t>
+          <t>002820</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>招商丰美灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25.84</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000368</t>
+          <t>501186</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富沪深300安中指数</t>
+          <t>华夏3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>127.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>350001</t>
+          <t>160142</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天治财富增长混合</t>
+          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.34</t>
+          <t>209.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501186</t>
+          <t>161728</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.66</t>
+          <t>290.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8469</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160142</t>
+          <t>000368</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>汇添富沪深300安中指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161728</t>
+          <t>350001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>天治财富增长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.67</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>39.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
+++ b/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001172</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001381</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
+++ b/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,970 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0849</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6685</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3668</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004975</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德恒益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519766</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德荣鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005371</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加心悦灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005372</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加心悦灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
+++ b/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2301,4 +2302,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
+++ b/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2310,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,17 +2322,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2341,14 +2362,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.37</v>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9806</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2357,14 +2400,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.18</v>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5626</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2373,14 +2438,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.37</v>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2389,13 +2476,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>17.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
+++ b/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2937,7 +2938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2948,17 +2949,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2968,14 +2989,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.81</v>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2984,14 +3027,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.37</v>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6636</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3000,14 +3065,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.18</v>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6511</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3016,14 +3103,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.37</v>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5172</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3032,13 +3141,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3759</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>17.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
+++ b/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3450,7 +3451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3461,17 +3462,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3481,14 +3502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.07</v>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3497,14 +3540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.81</v>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6145</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3513,14 +3578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.37</v>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4590</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3529,14 +3616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.18</v>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3545,14 +3654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15.37</v>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3561,13 +3692,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>17.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
+++ b/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>3.27</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>4.07</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2.81</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>3.37</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>0.18</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>15.37</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>17.98</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004738</t>
+          <t>159611</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根安隆回报混合A</t>
+          <t>广发中证全指电力ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.80</t>
+          <t>16.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23.57</t>
+          <t>99.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8482</t>
+          <t>0.8293</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159611</t>
+          <t>004958</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证全指电力ETF</t>
+          <t>圆信永丰优享生活灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>21.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>80.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6145</t>
+          <t>0.3657</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004958</t>
+          <t>159625</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>圆信永丰优享生活灵活配置混合</t>
+          <t>嘉实国证绿色电力ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.87</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.56</t>
+          <t>98.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4590</t>
+          <t>0.1262</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012367</t>
+          <t>004823</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根安荣回报混合型证券投资基金C</t>
+          <t>上投摩根安裕回报混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24.13</t>
+          <t>25.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3131</t>
+          <t>0.1033</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004739</t>
+          <t>004824</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根安隆回报混合C</t>
+          <t>上投摩根安裕回报混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23.57</t>
+          <t>25.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2850</t>
+          <t>0.0948</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012366</t>
+          <t>561700</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根安荣回报混合型证券投资基金A</t>
+          <t>博时中证全指电力公用事业ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15.89</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24.13</t>
+          <t>98.79</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2495</t>
+          <t>0.0648</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010469</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>圆信永丰聚优股票型证券投资基金A</t>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.20</t>
+          <t>98.29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1822</t>
+          <t>0.0448</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004824</t>
+          <t>519615</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上投摩根安裕回报混合C</t>
+          <t>银河君尚灵活配置混合I</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>34.44</t>
+          <t>35.36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1380</t>
+          <t>0.0262</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159625</t>
+          <t>562350</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实国证绿色电力ETF</t>
+          <t>银华中证全指电力公用事业ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.77</t>
+          <t>97.99</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0920</t>
+          <t>0.0226</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004823</t>
+          <t>519613</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上投摩根安裕回报混合A</t>
+          <t>银河君尚灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>34.44</t>
+          <t>35.36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0776</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010470</t>
+          <t>519614</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>圆信永丰聚优股票型证券投资基金C</t>
+          <t>银河君尚灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.20</t>
+          <t>35.36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1074,6 +1091,480 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6145</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4590</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +2076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2211,7 +2702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3177,7 +3668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3499,7 +3990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3745,7 +4236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
+++ b/数据整理/stocks/A股/深证主板/003816-中国广核.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>1.69</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>3.27</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>4.07</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>2.81</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>3.37</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>15.37</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,356 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>17.98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>207.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.0335</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161131</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达3年封闭运作战略配售灵活配置混合（LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>277.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161728</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>283.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8033</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +1022,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.62</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.58</t>
+          <t>99.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8293</t>
+          <t>0.4993</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1050,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004958</t>
+          <t>004738</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>圆信永丰优享生活灵活配置混合</t>
+          <t>上投摩根安隆回报混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.77</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.56</t>
+          <t>23.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3657</t>
+          <t>0.4310</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1088,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159625</t>
+          <t>004958</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实国证绿色电力ETF</t>
+          <t>圆信永丰优享生活灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>21.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.77</t>
+          <t>80.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1262</t>
+          <t>0.3573</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1126,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004823</t>
+          <t>012367</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根安裕回报混合A</t>
+          <t>上投摩根安荣回报混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.71</t>
+          <t>25.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1033</t>
+          <t>0.2230</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1164,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004824</t>
+          <t>004739</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根安裕回报混合C</t>
+          <t>上投摩根安隆回报混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25.71</t>
+          <t>23.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0948</t>
+          <t>0.1923</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1202,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>561700</t>
+          <t>012366</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时中证全指电力公用事业ETF</t>
+          <t>上投摩根安荣回报混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.79</t>
+          <t>25.70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0648</t>
+          <t>0.1750</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1240,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>561560</t>
+          <t>010469</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证全指电力公用事业ETF</t>
+          <t>圆信永丰聚优股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.29</t>
+          <t>85.15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0448</t>
+          <t>0.1585</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +1278,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519615</t>
+          <t>970007</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银河君尚灵活配置混合I</t>
+          <t>华安证券汇赢增利一年持有混合B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>35.36</t>
+          <t>22.39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.1348</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +1316,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>562350</t>
+          <t>159625</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华中证全指电力公用事业ETF</t>
+          <t>嘉实国证绿色电力ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>97.99</t>
+          <t>98.95</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0226</t>
+          <t>0.1332</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1354,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519613</t>
+          <t>004959</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银河君尚灵活配置混合A</t>
+          <t>圆信永丰优悦生活混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>35.36</t>
+          <t>79.04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.1122</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +1392,454 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519614</t>
+          <t>970008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>银河君尚灵活配置混合C</t>
+          <t>华安证券汇赢增利一年持有混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>35.36</t>
+          <t>22.39</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.1044</t>
         </is>
       </c>
       <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>561700</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>561560</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>562350</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008629</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008630</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>970006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1147,36 +1904,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004738</t>
+          <t>159611</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根安隆回报混合A</t>
+          <t>广发中证全指电力ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.80</t>
+          <t>16.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23.57</t>
+          <t>99.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8482</t>
+          <t>0.8293</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1185,36 +1942,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159611</t>
+          <t>004958</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证全指电力ETF</t>
+          <t>圆信永丰优享生活灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>21.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>80.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6145</t>
+          <t>0.3657</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1223,36 +1980,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004958</t>
+          <t>159625</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>圆信永丰优享生活灵活配置混合</t>
+          <t>嘉实国证绿色电力ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.87</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.56</t>
+          <t>98.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4590</t>
+          <t>0.1262</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1261,36 +2018,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012367</t>
+          <t>004823</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根安荣回报混合型证券投资基金C</t>
+          <t>上投摩根安裕回报混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24.13</t>
+          <t>25.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3131</t>
+          <t>0.1033</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1299,36 +2056,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004739</t>
+          <t>004824</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根安隆回报混合C</t>
+          <t>上投摩根安裕回报混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23.57</t>
+          <t>25.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2850</t>
+          <t>0.0948</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1337,36 +2094,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012366</t>
+          <t>561700</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根安荣回报混合型证券投资基金A</t>
+          <t>博时中证全指电力公用事业ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15.89</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24.13</t>
+          <t>98.79</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2495</t>
+          <t>0.0648</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1375,36 +2132,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010469</t>
+          <t>561560</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>圆信永丰聚优股票型证券投资基金A</t>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.20</t>
+          <t>98.29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1822</t>
+          <t>0.0448</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1413,36 +2170,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004824</t>
+          <t>519615</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上投摩根安裕回报混合C</t>
+          <t>银河君尚灵活配置混合I</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>34.44</t>
+          <t>35.36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1380</t>
+          <t>0.0262</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1451,36 +2208,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159625</t>
+          <t>562350</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实国证绿色电力ETF</t>
+          <t>银华中证全指电力公用事业ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.77</t>
+          <t>97.99</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0920</t>
+          <t>0.0226</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1489,36 +2246,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004823</t>
+          <t>519613</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上投摩根安裕回报混合A</t>
+          <t>银河君尚灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>34.44</t>
+          <t>35.36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0776</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1527,36 +2284,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010470</t>
+          <t>519614</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>圆信永丰聚优股票型证券投资基金C</t>
+          <t>银河君尚灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.20</t>
+          <t>35.36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1565,6 +2322,480 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6145</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4590</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2076,7 +3307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2702,7 +3933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3668,7 +4899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3990,7 +5221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4234,326 +5465,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160142</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>207.19</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>28.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>9.0335</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161131</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达3年封闭运作战略配售灵活配置混合（LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>277.98</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>23.41</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.9480</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161728</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商3年封闭运作战略配售灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>283.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>25.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.8033</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002819</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1017</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001427</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0877</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001446</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002820</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>